--- a/MetadataTable_RawSnowpitData.xlsx
+++ b/MetadataTable_RawSnowpitData.xlsx
@@ -37,7 +37,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>If this data has NO blanks, leave the "blank_description" column empty</t>
+          <t>Are you using methods designed by others? Cite here.</t>
         </r>
       </text>
     </comment>
@@ -45,14 +45,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ehbaker:</t>
+          <t>Have you published with this data? If so, provide that information here.</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -60,8 +63,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Best estimate of measurement uncertainty, in same units as those reported</t>
+          <t>List all authors in correct order, and with name as desired to be published with the data (i.e. middle initials or not).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is this data designed to be joined to another table in this dataset, or another published source (e.g. GLIMS)? If so, list table(s), and describe best way to join.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anything else you need to add?</t>
         </r>
       </text>
     </comment>
@@ -75,6 +103,32 @@
     <author>ehbaker</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>column name, identical to that in table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>spell out (no abbreviations)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -84,7 +138,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>If this data has NO blanks, leave the "blank_description" column empty</t>
+          <t>If you have multipe "no data" values (e.g. blanks, and -9999), please indicate the meaning for each.
+If this data has NO blanks, leave the "blank_description" column empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Best estimate of measurement uncertainty, in same units as those reported</t>
         </r>
       </text>
     </comment>
@@ -93,6 +161,67 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ehbaker</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>List all possible categories for this column.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If you have multipe "no data" values (e.g. blanks, and -9999), please indicate the meaning for each.
+If this data has NO blanks, leave the "blank_description" column empty.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ehbaker</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This should be an EPSG code (4 numbers). If you don't know, look it up at http://spatialreference.org/ref/epsg/.
+For Lat/lon (WGS84) it is 4326.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ehbaker</author>
@@ -166,9 +295,6 @@
     <t>uncertainty</t>
   </si>
   <si>
-    <t>GlacierNameYYYY.MM.DD PitCore_SiteLabel.csv</t>
-  </si>
-  <si>
     <t>Raw snow pit and snow core measurements of sample weight and volume, at specified depth from the surface</t>
   </si>
   <si>
@@ -267,12 +393,15 @@
   <si>
     <t>Nothing noted on specified sample</t>
   </si>
+  <si>
+    <t>GlacierNameYYYY.MM.DD PitCore_Site.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -325,13 +454,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -902,22 +1024,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="103.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -969,20 +1091,20 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1068,6 +1190,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1076,7 +1199,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -1107,16 +1230,16 @@
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="9">
         <v>5</v>
@@ -1124,13 +1247,13 @@
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="9">
@@ -1139,16 +1262,16 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9">
         <v>0.5</v>
@@ -1156,16 +1279,16 @@
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9">
         <v>0.2</v>
@@ -1173,13 +1296,13 @@
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9">
@@ -1234,7 +1357,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1254,18 +1377,18 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1282,11 +1405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1313,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -1362,6 +1485,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1370,7 +1494,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1389,18 +1513,18 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
